--- a/plantillas/formatoNASimple.xlsx
+++ b/plantillas/formatoNASimple.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gricardov.github.io\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F116C-95E6-49C4-8F16-8C2E83DCAAA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SEÑOR(ES):</t>
   </si>
@@ -50,26 +56,14 @@
     <t>P. Unitario</t>
   </si>
   <si>
-    <t>LOS PRECIOS INCLUYEN EL IGV Y ESTAN EXPRESADOS EN SOLES</t>
-  </si>
-  <si>
-    <t>ENTREGA 5 DIAS UTILES</t>
-  </si>
-  <si>
-    <t>VENCIMIENTO DE 1 AÑO</t>
-  </si>
-  <si>
     <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,17 +78,12 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Bright"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Lucida Bright"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,92 +117,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +168,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -301,7 +227,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -407,7 +339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector recto 7"/>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -459,7 +397,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Conector recto 8"/>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -511,7 +455,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 14"/>
+        <xdr:cNvPr id="10" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -602,19 +552,25 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4602196" y="754811"/>
-          <a:ext cx="1827033" cy="396456"/>
+          <a:off x="4353108" y="762000"/>
+          <a:ext cx="1722079" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
+            <a:gd name="adj" fmla="val 33334"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -693,7 +649,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11"/>
+        <xdr:cNvPr id="12" name="Conector recto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -745,7 +707,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13"/>
+        <xdr:cNvPr id="14" name="Conector recto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -787,15 +755,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>136525</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -803,6 +771,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -822,27 +793,16 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -852,56 +812,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485236</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>62900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>49913</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>162690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15" descr="C:\Users\ELEKTRA\Pictures\img006.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="38105" t="26316" r="29789" b="61336"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2075731" y="8078277"/>
-          <a:ext cx="1918970" cy="1043305"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1167,17 +1077,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
@@ -1186,45 +1096,91 @@
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1234,6 +1190,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1243,451 +1201,42 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <v>40</v>
-      </c>
-      <c r="I18" s="10">
-        <f>A18*H18</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10">
-        <f t="shared" ref="I19:I29" si="0">A19*H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="10">
-        <f>SUM(I18:I29)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+  <mergeCells count="8">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <pageMargins left="0.54166666666666663" right="0.55208333333333337" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Lucida Bright,Normal"&amp;10Avenida Luzuriaga 1045 - Belén - Huaraz - Ancash
 043 - 423597 / negociacionesadv@gmail.com</oddFooter>
@@ -1702,15 +1251,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/plantillas/formatoNASimple.xlsx
+++ b/plantillas/formatoNASimple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gricardov.github.io\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1186D-E6A9-41A0-AB01-DDFD8F1A6AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD89EB0-DF5F-453F-BB83-61AB150A464D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,6 +95,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF595959"/>
       <name val="Arial Black"/>
@@ -121,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,99 +145,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,47 +162,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,13 +196,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47627</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>102418</xdr:rowOff>
     </xdr:to>
@@ -355,8 +232,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47627" y="0"/>
-          <a:ext cx="4524374" cy="1816918"/>
+          <a:off x="47626" y="0"/>
+          <a:ext cx="4467223" cy="1816918"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,7 +571,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H11" sqref="H11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,96 +583,93 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="12" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="I6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7">
-        <v>7</v>
-      </c>
-      <c r="L6" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="I9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13">
-        <v>123456789</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>123456789</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -804,8 +678,12 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -817,10 +695,8 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -830,10 +706,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -841,11 +715,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -853,8 +724,6 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -882,13 +751,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:L10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="A12:B12"/>
